--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32588C0D-5C74-4F58-96D1-AE575CAF265D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3167E7-0A2C-43CB-A6D1-3918FD700AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="390" windowWidth="20310" windowHeight="14910" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="8100" yWindow="510" windowWidth="20310" windowHeight="14910" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -83,6 +83,90 @@
   </si>
   <si>
     <t>HCA</t>
+  </si>
+  <si>
+    <t>McKesson</t>
+  </si>
+  <si>
+    <t>MCK</t>
+  </si>
+  <si>
+    <t>WuXi Apptec</t>
+  </si>
+  <si>
+    <t>603259 CH</t>
+  </si>
+  <si>
+    <t>Iqvia</t>
+  </si>
+  <si>
+    <t>IQV</t>
+  </si>
+  <si>
+    <t>Amerisource</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>LabCorp</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>Catalent</t>
+  </si>
+  <si>
+    <t>CTLT</t>
+  </si>
+  <si>
+    <t>Molina</t>
+  </si>
+  <si>
+    <t>MOH</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>ICLR</t>
+  </si>
+  <si>
+    <t>Quest</t>
+  </si>
+  <si>
+    <t>DGX</t>
+  </si>
+  <si>
+    <t>Fresenius</t>
+  </si>
+  <si>
+    <t>FRE GR</t>
+  </si>
+  <si>
+    <t>Cardinal</t>
+  </si>
+  <si>
+    <t>CAH</t>
+  </si>
+  <si>
+    <t>Fresenius Medical</t>
+  </si>
+  <si>
+    <t>FME GR</t>
+  </si>
+  <si>
+    <t>Charles River</t>
+  </si>
+  <si>
+    <t>CRL</t>
+  </si>
+  <si>
+    <t>Aier Eye Hospital</t>
+  </si>
+  <si>
+    <t>300015 CH</t>
   </si>
 </sst>
 </file>
@@ -433,18 +517,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B2:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
@@ -517,6 +601,118 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3167E7-0A2C-43CB-A6D1-3918FD700AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA9C298-3702-4D51-A222-01962C3A16B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="510" windowWidth="20310" windowHeight="14910" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="5940" yWindow="2205" windowWidth="31035" windowHeight="17985" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Private" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -167,16 +171,53 @@
   </si>
   <si>
     <t>300015 CH</t>
+  </si>
+  <si>
+    <t>Science 37</t>
+  </si>
+  <si>
+    <t>SNCE</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Syapse</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Q222</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -198,13 +239,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -218,6 +274,37 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Models"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>116.348405</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>148.32900000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -517,43 +604,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
-  <dimension ref="B2:E23"/>
+  <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="10" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="5">
+        <v>544.70000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -561,7 +668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -569,7 +676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -577,7 +684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -585,7 +692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -593,7 +700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -601,7 +708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -609,7 +716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -617,7 +724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -625,7 +732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -633,7 +740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -641,7 +748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -649,7 +756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -657,7 +764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -665,7 +772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -673,7 +780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>34</v>
       </c>
@@ -681,7 +788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>36</v>
       </c>
@@ -689,7 +796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>38</v>
       </c>
@@ -697,7 +804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>40</v>
       </c>
@@ -705,7 +812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>42</v>
       </c>
@@ -713,7 +820,72 @@
         <v>43</v>
       </c>
     </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.79</v>
+      </c>
+      <c r="E24" s="3">
+        <f>+[1]Main!$N$3</f>
+        <v>116.348405</v>
+      </c>
+      <c r="F24" s="3">
+        <f>+D24*E24</f>
+        <v>208.26364495000001</v>
+      </c>
+      <c r="G24" s="3">
+        <f>+[1]Main!$N$5-[1]Main!$N$6</f>
+        <v>148.32900000000001</v>
+      </c>
+      <c r="H24" s="3">
+        <f>+F24-G24</f>
+        <v>59.934644950000006</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="4">
+        <v>44791</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B24" r:id="rId1" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DE9255-CFE9-4043-A2BC-99E9D42B4CC5}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A0D2358C-D33C-4497-9BB4-74B0882B5080}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA9C298-3702-4D51-A222-01962C3A16B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9E1EDB-AFDB-4529-94E2-7DDBEB8118D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="2205" windowWidth="31035" windowHeight="17985" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="24195" yWindow="2850" windowWidth="22275" windowHeight="16815" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -201,6 +202,15 @@
   </si>
   <si>
     <t>Q222</t>
+  </si>
+  <si>
+    <t>WebMD</t>
+  </si>
+  <si>
+    <t>KKR</t>
+  </si>
+  <si>
+    <t>2.8B</t>
   </si>
 </sst>
 </file>
@@ -298,6 +308,37 @@
         <row r="6">
           <cell r="N6">
             <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Models"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>935.38270999999997</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>70391</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>74369</v>
           </cell>
         </row>
       </sheetData>
@@ -610,7 +651,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -650,7 +691,7 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -658,6 +699,28 @@
       </c>
       <c r="D3" s="5">
         <v>544.70000000000005</v>
+      </c>
+      <c r="E3" s="3">
+        <f>+[2]Main!$M$3</f>
+        <v>935.38270999999997</v>
+      </c>
+      <c r="F3" s="3">
+        <f>+D3*E3</f>
+        <v>509502.96213700005</v>
+      </c>
+      <c r="G3" s="3">
+        <f>+[2]Main!$M$5-[2]Main!$M$6</f>
+        <v>-3978</v>
+      </c>
+      <c r="H3" s="3">
+        <f>+F3-G3</f>
+        <v>513480.96213700005</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="4">
+        <v>44793</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
@@ -856,30 +919,48 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B24" r:id="rId1" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{9E348503-3AE7-4682-84B0-5168194A64CE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DE9255-CFE9-4043-A2BC-99E9D42B4CC5}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9E1EDB-AFDB-4529-94E2-7DDBEB8118D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771A20FF-45D8-45C8-BC00-FCB94BA999C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24195" yWindow="2850" windowWidth="22275" windowHeight="16815" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="73395" yWindow="1695" windowWidth="20310" windowHeight="17790" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -211,6 +212,9 @@
   </si>
   <si>
     <t>2.8B</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -296,18 +300,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>116.348405</v>
+          <cell r="M3">
+            <v>935.38270999999997</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>148.32900000000001</v>
+          <cell r="M5">
+            <v>70391</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>0</v>
+          <cell r="M6">
+            <v>74369</v>
           </cell>
         </row>
       </sheetData>
@@ -322,23 +326,54 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="O3">
+            <v>1312.8288070000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="O5">
+            <v>36117</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="O6">
+            <v>65216</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
       <sheetName val="Models"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>935.38270999999997</v>
+          <cell r="N3">
+            <v>116.348405</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>70391</v>
+          <cell r="N5">
+            <v>148.32900000000001</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>74369</v>
+          <cell r="N6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -645,23 +680,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
-  <dimension ref="B2:J24"/>
+  <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="10" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -672,16 +708,16 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>51</v>
@@ -690,7 +726,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -701,20 +740,20 @@
         <v>544.70000000000005</v>
       </c>
       <c r="E3" s="3">
-        <f>+[2]Main!$M$3</f>
+        <f>+D3*H3</f>
+        <v>509502.96213700005</v>
+      </c>
+      <c r="F3" s="3">
+        <f>+[1]Main!$M$5-[1]Main!$M$6</f>
+        <v>-3978</v>
+      </c>
+      <c r="G3" s="3">
+        <f>+E3-F3</f>
+        <v>513480.96213700005</v>
+      </c>
+      <c r="H3" s="3">
+        <f>+[1]Main!$M$3</f>
         <v>935.38270999999997</v>
-      </c>
-      <c r="F3" s="3">
-        <f>+D3*E3</f>
-        <v>509502.96213700005</v>
-      </c>
-      <c r="G3" s="3">
-        <f>+[2]Main!$M$5-[2]Main!$M$6</f>
-        <v>-3978</v>
-      </c>
-      <c r="H3" s="3">
-        <f>+F3-G3</f>
-        <v>513480.96213700005</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>53</v>
@@ -723,39 +762,79 @@
         <v>44793</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D4" s="2">
+        <v>100.06</v>
+      </c>
+      <c r="E4" s="2">
+        <f>+D4*H4</f>
+        <v>131361.65042842002</v>
+      </c>
+      <c r="F4" s="3">
+        <f>[2]Main!$O$5-[2]Main!$O$6</f>
+        <v>-29099</v>
+      </c>
+      <c r="G4" s="3">
+        <f>+E4-F4</f>
+        <v>160460.65042842002</v>
+      </c>
+      <c r="H4" s="3">
+        <f>[2]Main!$O$3</f>
+        <v>1312.8288070000001</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="4">
+        <v>44799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -763,7 +842,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -771,7 +853,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -779,7 +864,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -787,7 +875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>20</v>
       </c>
@@ -795,7 +883,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -803,7 +891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -811,7 +899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -819,7 +907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -894,20 +982,20 @@
         <v>1.79</v>
       </c>
       <c r="E24" s="3">
-        <f>+[1]Main!$N$3</f>
+        <f>+D24*H24</f>
+        <v>208.26364495000001</v>
+      </c>
+      <c r="F24" s="3">
+        <f>+[3]Main!$N$5-[3]Main!$N$6</f>
+        <v>148.32900000000001</v>
+      </c>
+      <c r="G24" s="3">
+        <f>+E24-F24</f>
+        <v>59.934644950000006</v>
+      </c>
+      <c r="H24" s="3">
+        <f>+[3]Main!$N$3</f>
         <v>116.348405</v>
-      </c>
-      <c r="F24" s="3">
-        <f>+D24*E24</f>
-        <v>208.26364495000001</v>
-      </c>
-      <c r="G24" s="3">
-        <f>+[1]Main!$N$5-[1]Main!$N$6</f>
-        <v>148.32900000000001</v>
-      </c>
-      <c r="H24" s="3">
-        <f>+F24-G24</f>
-        <v>59.934644950000006</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>53</v>
@@ -920,9 +1008,10 @@
   <hyperlinks>
     <hyperlink ref="B24" r:id="rId1" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9E348503-3AE7-4682-84B0-5168194A64CE}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{7B2636F0-BE29-4011-BA7C-DC63A8515BA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -930,9 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DE9255-CFE9-4043-A2BC-99E9D42B4CC5}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771A20FF-45D8-45C8-BC00-FCB94BA999C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2D764B-E8C1-4EE7-AC46-609C39A53836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="73395" yWindow="1695" windowWidth="20310" windowHeight="17790" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="67755" yWindow="855" windowWidth="22155" windowHeight="13350" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -215,6 +215,24 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Lonza</t>
+  </si>
+  <si>
+    <t>LONN SW</t>
+  </si>
+  <si>
+    <t>Welltower</t>
+  </si>
+  <si>
+    <t>WELL</t>
+  </si>
+  <si>
+    <t>Walgreens Boots</t>
+  </si>
+  <si>
+    <t>WBA</t>
   </si>
 </sst>
 </file>
@@ -680,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
-  <dimension ref="A2:J24"/>
+  <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -876,137 +894,176 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
       <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C27" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D27" s="2">
         <v>1.79</v>
       </c>
-      <c r="E24" s="3">
-        <f>+D24*H24</f>
+      <c r="E27" s="3">
+        <f>+D27*H27</f>
         <v>208.26364495000001</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F27" s="3">
         <f>+[3]Main!$N$5-[3]Main!$N$6</f>
         <v>148.32900000000001</v>
       </c>
-      <c r="G24" s="3">
-        <f>+E24-F24</f>
+      <c r="G27" s="3">
+        <f>+E27-F27</f>
         <v>59.934644950000006</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H27" s="3">
         <f>+[3]Main!$N$3</f>
         <v>116.348405</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J27" s="4">
         <v>44791</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B24" r:id="rId1" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
+    <hyperlink ref="B27" r:id="rId1" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9E348503-3AE7-4682-84B0-5168194A64CE}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{7B2636F0-BE29-4011-BA7C-DC63A8515BA5}"/>
   </hyperlinks>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2D764B-E8C1-4EE7-AC46-609C39A53836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5922113-BA65-4920-A275-1BBC35069361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67755" yWindow="855" windowWidth="22155" windowHeight="13350" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="52170" yWindow="570" windowWidth="24495" windowHeight="20445" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>WBA</t>
+  </si>
+  <si>
+    <t>JD Health</t>
+  </si>
+  <si>
+    <t>6618 HK</t>
   </si>
 </sst>
 </file>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
-  <dimension ref="A2:J27"/>
+  <dimension ref="A2:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -948,7 +954,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -956,114 +965,125 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
       <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>38</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>40</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D28" s="2">
         <v>1.79</v>
       </c>
-      <c r="E27" s="3">
-        <f>+D27*H27</f>
+      <c r="E28" s="3">
+        <f>+D28*H28</f>
         <v>208.26364495000001</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F28" s="3">
         <f>+[3]Main!$N$5-[3]Main!$N$6</f>
         <v>148.32900000000001</v>
       </c>
-      <c r="G27" s="3">
-        <f>+E27-F27</f>
+      <c r="G28" s="3">
+        <f>+E28-F28</f>
         <v>59.934644950000006</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H28" s="3">
         <f>+[3]Main!$N$3</f>
         <v>116.348405</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J28" s="4">
         <v>44791</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B27" r:id="rId1" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
+    <hyperlink ref="B28" r:id="rId1" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9E348503-3AE7-4682-84B0-5168194A64CE}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{7B2636F0-BE29-4011-BA7C-DC63A8515BA5}"/>
   </hyperlinks>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5922113-BA65-4920-A275-1BBC35069361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB9004D-E5EA-4EAD-81E6-3F77620FB64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52170" yWindow="570" windowWidth="24495" windowHeight="20445" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="15975" yWindow="1050" windowWidth="12225" windowHeight="19590" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>Name</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>6618 HK</t>
+  </si>
+  <si>
+    <t>Avantor</t>
+  </si>
+  <si>
+    <t>AVTR</t>
   </si>
 </sst>
 </file>
@@ -704,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
-  <dimension ref="A2:J28"/>
+  <dimension ref="A2:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1049,41 +1055,49 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D29" s="2">
         <v>1.79</v>
       </c>
-      <c r="E28" s="3">
-        <f>+D28*H28</f>
+      <c r="E29" s="3">
+        <f>+D29*H29</f>
         <v>208.26364495000001</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F29" s="3">
         <f>+[3]Main!$N$5-[3]Main!$N$6</f>
         <v>148.32900000000001</v>
       </c>
-      <c r="G28" s="3">
-        <f>+E28-F28</f>
+      <c r="G29" s="3">
+        <f>+E29-F29</f>
         <v>59.934644950000006</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H29" s="3">
         <f>+[3]Main!$N$3</f>
         <v>116.348405</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J29" s="4">
         <v>44791</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B28" r:id="rId1" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
+    <hyperlink ref="B29" r:id="rId1" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9E348503-3AE7-4682-84B0-5168194A64CE}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{7B2636F0-BE29-4011-BA7C-DC63A8515BA5}"/>
   </hyperlinks>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB9004D-E5EA-4EAD-81E6-3F77620FB64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF4EF56-3864-4564-A7F8-9A7A104A1D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15975" yWindow="1050" windowWidth="12225" windowHeight="19590" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="53040" yWindow="7185" windowWidth="31935" windowHeight="13605" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -245,6 +245,24 @@
   </si>
   <si>
     <t>AVTR</t>
+  </si>
+  <si>
+    <t>Dr. Sulaiman</t>
+  </si>
+  <si>
+    <t>SULAIMAN AB</t>
+  </si>
+  <si>
+    <t>Pharmaron</t>
+  </si>
+  <si>
+    <t>300759 CH</t>
+  </si>
+  <si>
+    <t>Hangzhou Tigermed</t>
+  </si>
+  <si>
+    <t>300347 CH</t>
   </si>
 </sst>
 </file>
@@ -710,13 +728,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
-  <dimension ref="A2:J29"/>
+  <dimension ref="A2:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1032,18 +1050,18 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1063,41 +1081,65 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C32" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D32" s="2">
         <v>1.79</v>
       </c>
-      <c r="E29" s="3">
-        <f>+D29*H29</f>
+      <c r="E32" s="3">
+        <f>+D32*H32</f>
         <v>208.26364495000001</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F32" s="3">
         <f>+[3]Main!$N$5-[3]Main!$N$6</f>
         <v>148.32900000000001</v>
       </c>
-      <c r="G29" s="3">
-        <f>+E29-F29</f>
+      <c r="G32" s="3">
+        <f>+E32-F32</f>
         <v>59.934644950000006</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H32" s="3">
         <f>+[3]Main!$N$3</f>
         <v>116.348405</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J32" s="4">
         <v>44791</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B29" r:id="rId1" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
+    <hyperlink ref="B32" r:id="rId1" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9E348503-3AE7-4682-84B0-5168194A64CE}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{7B2636F0-BE29-4011-BA7C-DC63A8515BA5}"/>
   </hyperlinks>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF4EF56-3864-4564-A7F8-9A7A104A1D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53CF30B-37D5-4593-9435-550F183B97E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53040" yWindow="7185" windowWidth="31935" windowHeight="13605" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="22635" yWindow="1485" windowWidth="24855" windowHeight="19110" activeTab="1" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t>Name</t>
   </si>
@@ -263,6 +263,21 @@
   </si>
   <si>
     <t>300347 CH</t>
+  </si>
+  <si>
+    <t>Haiipfy</t>
+  </si>
+  <si>
+    <t>Raise</t>
+  </si>
+  <si>
+    <t>73m</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -730,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
   <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1150,29 +1165,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DE9255-CFE9-4043-A2BC-99E9D42B4CC5}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>54</v>
       </c>
@@ -1181,6 +1204,17 @@
       </c>
       <c r="D4" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53CF30B-37D5-4593-9435-550F183B97E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995042B5-0982-43EC-A7FC-C29123EEBA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22635" yWindow="1485" windowWidth="24855" windowHeight="19110" activeTab="1" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -265,9 +265,6 @@
     <t>300347 CH</t>
   </si>
   <si>
-    <t>Haiipfy</t>
-  </si>
-  <si>
     <t>Raise</t>
   </si>
   <si>
@@ -278,6 +275,27 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Datavant</t>
+  </si>
+  <si>
+    <t>Happify</t>
+  </si>
+  <si>
+    <t>Syneos</t>
+  </si>
+  <si>
+    <t>SYNH</t>
+  </si>
+  <si>
+    <t>Informa</t>
+  </si>
+  <si>
+    <t>TrialTrove, Citeline</t>
+  </si>
+  <si>
+    <t>Trove Health Tech Inc.</t>
   </si>
 </sst>
 </file>
@@ -743,13 +761,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
-  <dimension ref="A2:J32"/>
+  <dimension ref="A2:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -993,7 +1011,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -1004,7 +1022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1015,7 +1033,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -1023,7 +1041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -1031,7 +1049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>28</v>
       </c>
@@ -1039,7 +1057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -1047,7 +1065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>32</v>
       </c>
@@ -1055,7 +1073,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>34</v>
       </c>
@@ -1063,7 +1081,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>38</v>
       </c>
@@ -1071,7 +1089,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>36</v>
       </c>
@@ -1079,7 +1097,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>40</v>
       </c>
@@ -1087,7 +1105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>66</v>
       </c>
@@ -1095,7 +1113,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>68</v>
       </c>
@@ -1103,7 +1121,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>70</v>
       </c>
@@ -1111,7 +1129,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>72</v>
       </c>
@@ -1119,42 +1137,58 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D33" s="2">
         <v>1.79</v>
       </c>
-      <c r="E32" s="3">
-        <f>+D32*H32</f>
+      <c r="E33" s="3">
+        <f>+D33*H33</f>
         <v>208.26364495000001</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F33" s="3">
         <f>+[3]Main!$N$5-[3]Main!$N$6</f>
         <v>148.32900000000001</v>
       </c>
-      <c r="G32" s="3">
-        <f>+E32-F32</f>
+      <c r="G33" s="3">
+        <f>+E33-F33</f>
         <v>59.934644950000006</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H33" s="3">
         <f>+[3]Main!$N$3</f>
         <v>116.348405</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J33" s="4">
         <v>44791</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="K34" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B32" r:id="rId1" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
+    <hyperlink ref="B33" r:id="rId1" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9E348503-3AE7-4682-84B0-5168194A64CE}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{7B2636F0-BE29-4011-BA7C-DC63A8515BA5}"/>
   </hyperlinks>
@@ -1165,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DE9255-CFE9-4043-A2BC-99E9D42B4CC5}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1184,10 +1218,10 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1208,13 +1242,23 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\CODE\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995042B5-0982-43EC-A7FC-C29123EEBA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DA3A89-2ABB-4B0E-A9AA-EEFA4076B14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="52995" yWindow="615" windowWidth="30810" windowHeight="19200" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Private" sheetId="2" r:id="rId2"/>
+    <sheet name="CDMO" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -296,6 +297,90 @@
   </si>
   <si>
     <t>Trove Health Tech Inc.</t>
+  </si>
+  <si>
+    <t>IHH Healthcare</t>
+  </si>
+  <si>
+    <t>IHH MK</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Bangkok Dusit Medical</t>
+  </si>
+  <si>
+    <t>BDMS TB</t>
+  </si>
+  <si>
+    <t>Sonic Healthcare</t>
+  </si>
+  <si>
+    <t>SHL AU</t>
+  </si>
+  <si>
+    <t>Ramsay Health</t>
+  </si>
+  <si>
+    <t>RHC AU</t>
+  </si>
+  <si>
+    <t>Agilon Health</t>
+  </si>
+  <si>
+    <t>AGL</t>
+  </si>
+  <si>
+    <t>Rede D'or Sao Luiz</t>
+  </si>
+  <si>
+    <t>RDOR3 BZ</t>
+  </si>
+  <si>
+    <t>Davita</t>
+  </si>
+  <si>
+    <t>DVA</t>
+  </si>
+  <si>
+    <t>Gentec</t>
+  </si>
+  <si>
+    <t>EuroAPI</t>
+  </si>
+  <si>
+    <t>Supriya Lifescience</t>
+  </si>
+  <si>
+    <t>Sterling Pharmaceutical Services</t>
+  </si>
+  <si>
+    <t>Polpharm</t>
+  </si>
+  <si>
+    <t>CBL Patras</t>
+  </si>
+  <si>
+    <t>Aspen</t>
+  </si>
+  <si>
+    <t>PharmaCompass.com</t>
+  </si>
+  <si>
+    <t>Veranova</t>
+  </si>
+  <si>
+    <t>002001 CH</t>
+  </si>
+  <si>
+    <t>Zhejiang NHU</t>
+  </si>
+  <si>
+    <t>002821 CH</t>
+  </si>
+  <si>
+    <t>Asymchem Labs</t>
   </si>
 </sst>
 </file>
@@ -761,13 +846,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
-  <dimension ref="A2:K34"/>
+  <dimension ref="A2:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1145,7 +1230,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>44</v>
       </c>
@@ -1178,7 +1263,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>82</v>
       </c>
@@ -1186,11 +1271,88 @@
         <v>83</v>
       </c>
     </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{7B2636F0-BE29-4011-BA7C-DC63A8515BA5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9E348503-3AE7-4682-84B0-5168194A64CE}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{7B2636F0-BE29-4011-BA7C-DC63A8515BA5}"/>
+    <hyperlink ref="B33" r:id="rId3" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
@@ -1201,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DE9255-CFE9-4043-A2BC-99E9D42B4CC5}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1267,4 +1429,119 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E946CBC6-AB19-4864-8781-64E78709BBCD}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D841DA18-6160-46DD-9F4B-29313F6DAC86}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DA3A89-2ABB-4B0E-A9AA-EEFA4076B14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B031046B-FCE7-47BA-9744-2E4351472369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52995" yWindow="615" windowWidth="30810" windowHeight="19200" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="52050" yWindow="0" windowWidth="29055" windowHeight="20880" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -852,7 +852,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1364,7 +1364,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B031046B-FCE7-47BA-9744-2E4351472369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCE4FAA-4A65-4E40-BB9F-1FED16DACD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52050" yWindow="0" windowWidth="29055" windowHeight="20880" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="-45360" yWindow="2640" windowWidth="33480" windowHeight="16740" activeTab="2" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Private" sheetId="2" r:id="rId2"/>
-    <sheet name="CDMO" sheetId="3" r:id="rId3"/>
+    <sheet name="Resources" sheetId="4" r:id="rId2"/>
+    <sheet name="Private" sheetId="2" r:id="rId3"/>
+    <sheet name="CDMO" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -80,9 +81,6 @@
     <t>Elevance</t>
   </si>
   <si>
-    <t>ELEV</t>
-  </si>
-  <si>
     <t>Centene</t>
   </si>
   <si>
@@ -381,6 +379,21 @@
   </si>
   <si>
     <t>Asymchem Labs</t>
+  </si>
+  <si>
+    <t>https://www.pharma-iq.com/vendors</t>
+  </si>
+  <si>
+    <t>ELV</t>
+  </si>
+  <si>
+    <t>TandemAI</t>
+  </si>
+  <si>
+    <t>25m</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -848,11 +861,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
   <dimension ref="A2:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -877,24 +890,24 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -922,7 +935,7 @@
         <v>935.38270999999997</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J3" s="4">
         <v>44793</v>
@@ -930,7 +943,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -958,7 +971,7 @@
         <v>1312.8288070000001</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" s="4">
         <v>44799</v>
@@ -966,18 +979,21 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>113</v>
+      </c>
+      <c r="D5" s="2">
+        <v>513.83000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -988,7 +1004,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -999,243 +1015,243 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
         <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
         <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
         <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
         <v>64</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
         <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
         <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
         <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
         <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
         <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
         <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
         <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
         <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
         <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
         <v>66</v>
-      </c>
-      <c r="C28" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
         <v>68</v>
-      </c>
-      <c r="C29" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
         <v>70</v>
-      </c>
-      <c r="C30" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
         <v>72</v>
-      </c>
-      <c r="C31" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
         <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
         <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>45</v>
       </c>
       <c r="D33" s="2">
         <v>1.79</v>
@@ -1257,7 +1273,7 @@
         <v>116.348405</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J33" s="4">
         <v>44791</v>
@@ -1265,87 +1281,87 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" t="s">
         <v>82</v>
-      </c>
-      <c r="K34" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
         <v>85</v>
-      </c>
-      <c r="C35" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
         <v>87</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>88</v>
-      </c>
-      <c r="C36" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
         <v>90</v>
-      </c>
-      <c r="C37" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
         <v>92</v>
-      </c>
-      <c r="C38" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
         <v>94</v>
-      </c>
-      <c r="C39" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" t="s">
         <v>96</v>
-      </c>
-      <c r="C40" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" t="s">
         <v>98</v>
-      </c>
-      <c r="C41" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1360,11 +1376,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DE9255-CFE9-4043-A2BC-99E9D42B4CC5}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96907ADA-06DE-4EF9-838A-68544D652820}">
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D35C7F72-692A-45C1-AC39-2B0F7641E0E6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DE9255-CFE9-4043-A2BC-99E9D42B4CC5}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1374,53 +1413,64 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1431,7 +1481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E946CBC6-AB19-4864-8781-64E78709BBCD}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -1443,7 +1493,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1451,91 +1501,91 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCE4FAA-4A65-4E40-BB9F-1FED16DACD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEE70DB-F558-4EBB-8553-39BB8332086D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45360" yWindow="2640" windowWidth="33480" windowHeight="16740" activeTab="2" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="-47460" yWindow="435" windowWidth="33330" windowHeight="20340" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -861,11 +861,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
   <dimension ref="A2:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1135,6 +1135,9 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -1402,7 +1405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DE9255-CFE9-4043-A2BC-99E9D42B4CC5}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEE70DB-F558-4EBB-8553-39BB8332086D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097D2CB1-D7EC-478C-A0B6-C90BFDF3A371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47460" yWindow="435" windowWidth="33330" windowHeight="20340" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="-36000" yWindow="1455" windowWidth="34035" windowHeight="18450" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
   <si>
     <t>Name</t>
   </si>
@@ -394,12 +395,15 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Q322</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -457,7 +461,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{48AA6112-8494-41D9-9276-7376C337B406}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -470,7 +476,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -501,7 +507,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -532,7 +538,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
@@ -553,6 +559,40 @@
         <row r="6">
           <cell r="N6">
             <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="J3">
+            <v>238.97462400000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="J5">
+            <v>42039</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="J6">
+            <v>38749</v>
           </cell>
         </row>
       </sheetData>
@@ -851,7 +891,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -861,11 +901,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
   <dimension ref="A2:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -954,7 +994,7 @@
       <c r="D4" s="2">
         <v>100.06</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <f>+D4*H4</f>
         <v>131361.65042842002</v>
       </c>
@@ -981,14 +1021,36 @@
       <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="2">
-        <v>513.83000000000004</v>
+      <c r="D5" s="5">
+        <v>479</v>
+      </c>
+      <c r="E5" s="3">
+        <f>+D5*H5</f>
+        <v>114468.84489600001</v>
+      </c>
+      <c r="F5" s="3">
+        <f>+[4]Main!$J$5-[4]Main!$J$6</f>
+        <v>3290</v>
+      </c>
+      <c r="G5" s="3">
+        <f>+E5-F5</f>
+        <v>111178.84489600001</v>
+      </c>
+      <c r="H5" s="3">
+        <f>+[4]Main!$J$3</f>
+        <v>238.97462400000001</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="4">
+        <v>44947</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1372,9 +1434,10 @@
     <hyperlink ref="B4" r:id="rId1" xr:uid="{7B2636F0-BE29-4011-BA7C-DC63A8515BA5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9E348503-3AE7-4682-84B0-5168194A64CE}"/>
     <hyperlink ref="B33" r:id="rId3" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{E1A45D9E-6D14-4368-BE56-B4AE73B3148F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097D2CB1-D7EC-478C-A0B6-C90BFDF3A371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E777DE3B-E480-4E3F-98CC-418F530738C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36000" yWindow="1455" windowWidth="34035" windowHeight="18450" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="16155" yWindow="2085" windowWidth="24810" windowHeight="17385" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -478,6 +478,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Models"/>
@@ -500,7 +503,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -540,37 +543,6 @@
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Models"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="N3">
-            <v>116.348405</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>148.32900000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
@@ -593,6 +565,37 @@
         <row r="6">
           <cell r="J6">
             <v>38749</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Models"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>116.348405</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>148.32900000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -891,7 +894,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -905,7 +908,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1035,7 +1038,7 @@
         <v>114468.84489600001</v>
       </c>
       <c r="F5" s="3">
-        <f>+[4]Main!$J$5-[4]Main!$J$6</f>
+        <f>+[3]Main!$J$5-[3]Main!$J$6</f>
         <v>3290</v>
       </c>
       <c r="G5" s="3">
@@ -1043,7 +1046,7 @@
         <v>111178.84489600001</v>
       </c>
       <c r="H5" s="3">
-        <f>+[4]Main!$J$3</f>
+        <f>+[3]Main!$J$3</f>
         <v>238.97462400000001</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1326,7 +1329,7 @@
         <v>208.26364495000001</v>
       </c>
       <c r="F33" s="3">
-        <f>+[3]Main!$N$5-[3]Main!$N$6</f>
+        <f>+[4]Main!$N$5-[4]Main!$N$6</f>
         <v>148.32900000000001</v>
       </c>
       <c r="G33" s="3">
@@ -1334,7 +1337,7 @@
         <v>59.934644950000006</v>
       </c>
       <c r="H33" s="3">
-        <f>+[3]Main!$N$3</f>
+        <f>+[4]Main!$N$3</f>
         <v>116.348405</v>
       </c>
       <c r="I33" s="2" t="s">

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E777DE3B-E480-4E3F-98CC-418F530738C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E6FC16-803C-481A-9B9C-B700120E7CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16155" yWindow="2085" windowWidth="24810" windowHeight="17385" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="10245" yWindow="135" windowWidth="41355" windowHeight="20745" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="124">
   <si>
     <t>Name</t>
   </si>
@@ -398,6 +398,24 @@
   </si>
   <si>
     <t>Q322</t>
+  </si>
+  <si>
+    <t>Universal Health</t>
+  </si>
+  <si>
+    <t>UHS</t>
+  </si>
+  <si>
+    <t>Hapvida</t>
+  </si>
+  <si>
+    <t>HAPV3 BZ</t>
+  </si>
+  <si>
+    <t>Chemed</t>
+  </si>
+  <si>
+    <t>CHE</t>
   </si>
 </sst>
 </file>
@@ -503,7 +521,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -902,13 +920,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
-  <dimension ref="A2:K41"/>
+  <dimension ref="A2:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1211,181 +1229,181 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>79</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D34" s="2">
         <v>1.79</v>
       </c>
-      <c r="E33" s="3">
-        <f>+D33*H33</f>
+      <c r="E34" s="3">
+        <f>+D34*H34</f>
         <v>208.26364495000001</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F34" s="3">
         <f>+[4]Main!$N$5-[4]Main!$N$6</f>
         <v>148.32900000000001</v>
       </c>
-      <c r="G33" s="3">
-        <f>+E33-F33</f>
+      <c r="G34" s="3">
+        <f>+E34-F34</f>
         <v>59.934644950000006</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H34" s="3">
         <f>+[4]Main!$N$3</f>
         <v>116.348405</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J34" s="4">
         <v>44791</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>81</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K35" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -1393,10 +1411,10 @@
         <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1404,10 +1422,10 @@
         <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1415,10 +1433,10 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -1426,17 +1444,50 @@
         <v>56</v>
       </c>
       <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
         <v>97</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{7B2636F0-BE29-4011-BA7C-DC63A8515BA5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9E348503-3AE7-4682-84B0-5168194A64CE}"/>
-    <hyperlink ref="B33" r:id="rId3" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
+    <hyperlink ref="B34" r:id="rId3" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{E1A45D9E-6D14-4368-BE56-B4AE73B3148F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E6FC16-803C-481A-9B9C-B700120E7CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D9097C-F342-432E-B9BF-516BBE68AFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="135" windowWidth="41355" windowHeight="20745" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -923,10 +923,10 @@
   <dimension ref="A2:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D9097C-F342-432E-B9BF-516BBE68AFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9B5EDA-0FDA-48EB-B0BE-DCE68EC0383A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
@@ -926,7 +926,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1078,11 +1078,14 @@
       <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
+      </c>
+      <c r="J6" s="4">
+        <v>45011</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1489,9 +1492,10 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9E348503-3AE7-4682-84B0-5168194A64CE}"/>
     <hyperlink ref="B34" r:id="rId3" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{E1A45D9E-6D14-4368-BE56-B4AE73B3148F}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{A4CD829C-FA5F-4E8F-A091-9BC35370EDB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9B5EDA-0FDA-48EB-B0BE-DCE68EC0383A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E707B1-132C-4D27-B2FA-45D77A5D6F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="11115" yWindow="2475" windowWidth="29265" windowHeight="18405" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -926,7 +926,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1083,6 +1083,9 @@
       </c>
       <c r="C6" t="s">
         <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>254.03</v>
       </c>
       <c r="J6" s="4">
         <v>45011</v>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E707B1-132C-4D27-B2FA-45D77A5D6F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C75E298-72FF-44B3-BCE2-249A2F761442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11115" yWindow="2475" windowWidth="29265" windowHeight="18405" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="-24600" yWindow="270" windowWidth="24000" windowHeight="20565" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="124">
   <si>
     <t>Name</t>
   </si>
@@ -926,7 +926,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1169,9 +1169,6 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
       <c r="B14" t="s">
         <v>59</v>
       </c>
@@ -1191,9 +1188,6 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
       <c r="B16" t="s">
         <v>61</v>
       </c>
@@ -1213,9 +1207,6 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
       <c r="B18" t="s">
         <v>63</v>
       </c>
@@ -1235,9 +1226,6 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
       <c r="B20" t="s">
         <v>118</v>
       </c>
@@ -1254,6 +1242,9 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -1262,6 +1253,9 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -1270,6 +1264,9 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -1278,6 +1275,9 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
       <c r="B25" t="s">
         <v>33</v>
       </c>
@@ -1286,6 +1286,9 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
       <c r="B26" t="s">
         <v>37</v>
       </c>
@@ -1294,6 +1297,9 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
@@ -1318,6 +1324,9 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
       <c r="B30" t="s">
         <v>67</v>
       </c>
@@ -1506,9 +1515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96907ADA-06DE-4EF9-838A-68544D652820}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1529,9 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21DE9255-CFE9-4043-A2BC-99E9D42B4CC5}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1612,11 +1617,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E946CBC6-AB19-4864-8781-64E78709BBCD}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C16"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1625,6 +1632,12 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1649,9 +1662,6 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
       <c r="B5" t="s">
         <v>111</v>
       </c>
@@ -1660,9 +1670,6 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
       <c r="B6" t="s">
         <v>109</v>
       </c>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C75E298-72FF-44B3-BCE2-249A2F761442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C7C9F8-D3EE-F84C-8291-4E6BD0FE250A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24600" yWindow="270" windowWidth="24000" windowHeight="20565" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="-40180" yWindow="-20700" windowWidth="22460" windowHeight="17080" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -624,9 +624,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -664,7 +664,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -770,7 +770,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -912,7 +912,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -926,18 +926,18 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="10" width="9.140625" style="2"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="10" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -966,7 +966,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>44793</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>59</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>61</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>63</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>118</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>65</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>69</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>71</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>79</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>81</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -1517,9 +1517,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>112</v>
       </c>
@@ -1538,17 +1538,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="E2" t="s">
         <v>73</v>
@@ -1557,12 +1557,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>78</v>
       </c>
@@ -1584,17 +1584,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>114</v>
       </c>
@@ -1619,18 +1619,18 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>111</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>109</v>
       </c>
@@ -1677,47 +1677,47 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>99</v>
       </c>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C7C9F8-D3EE-F84C-8291-4E6BD0FE250A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA921586-03A0-4E00-B4D3-18DF9329D8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40180" yWindow="-20700" windowWidth="22460" windowHeight="17080" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="-49335" yWindow="2460" windowWidth="29955" windowHeight="18015" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -416,6 +417,9 @@
   </si>
   <si>
     <t>CHE</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
@@ -618,6 +622,40 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>120.401661</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>24049</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>24696</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -926,18 +964,18 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="10" width="9.1640625" style="2"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="10" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -966,7 +1004,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1002,7 +1040,7 @@
         <v>44793</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1038,7 +1076,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1074,7 +1112,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1091,18 +1129,43 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="D7" s="5">
+        <v>226</v>
+      </c>
+      <c r="E7" s="3">
+        <f>+D7*H7</f>
+        <v>27210.775386000001</v>
+      </c>
+      <c r="F7" s="3">
+        <f>+[5]Main!$M$5-[5]Main!$M$6</f>
+        <v>-647</v>
+      </c>
+      <c r="G7" s="3">
+        <f>+E7-F7</f>
+        <v>27857.775386000001</v>
+      </c>
+      <c r="H7" s="3">
+        <f>+[5]Main!$M$3</f>
+        <v>120.401661</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="4">
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1113,7 +1176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1124,7 +1187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1135,7 +1198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1146,7 +1209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1157,7 +1220,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1168,7 +1231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>59</v>
       </c>
@@ -1176,7 +1239,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1187,7 +1250,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>61</v>
       </c>
@@ -1195,7 +1258,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1206,7 +1269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>63</v>
       </c>
@@ -1214,7 +1277,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1225,7 +1288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>118</v>
       </c>
@@ -1233,7 +1296,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -1241,7 +1304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1252,7 +1315,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1263,7 +1326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1274,7 +1337,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1285,7 +1348,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1296,7 +1359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1307,7 +1370,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -1315,7 +1378,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>65</v>
       </c>
@@ -1323,7 +1386,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1334,7 +1397,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>69</v>
       </c>
@@ -1342,7 +1405,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>71</v>
       </c>
@@ -1350,7 +1413,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>79</v>
       </c>
@@ -1358,7 +1421,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
@@ -1391,7 +1454,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>81</v>
       </c>
@@ -1399,7 +1462,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1410,7 +1473,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -1421,7 +1484,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -1432,7 +1495,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1443,7 +1506,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -1454,7 +1517,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1465,7 +1528,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -1476,7 +1539,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -1487,7 +1550,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -1505,9 +1568,10 @@
     <hyperlink ref="B34" r:id="rId3" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{E1A45D9E-6D14-4368-BE56-B4AE73B3148F}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{A4CD829C-FA5F-4E8F-A091-9BC35370EDB8}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{11CBD911-60EF-41AE-BE99-05DC8E7F8EAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1517,9 +1581,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>112</v>
       </c>
@@ -1538,17 +1602,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="E2" t="s">
         <v>73</v>
@@ -1557,12 +1621,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -1573,7 +1637,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>78</v>
       </c>
@@ -1584,17 +1648,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>114</v>
       </c>
@@ -1619,18 +1683,18 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>0</v>
@@ -1639,7 +1703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1650,7 +1714,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1661,7 +1725,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>111</v>
       </c>
@@ -1669,7 +1733,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>109</v>
       </c>
@@ -1677,47 +1741,47 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>99</v>
       </c>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA921586-03A0-4E00-B4D3-18DF9329D8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C043D1-A41A-485C-8724-7F29764EC46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49335" yWindow="2460" windowWidth="29955" windowHeight="18015" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="11250" yWindow="4360" windowWidth="26500" windowHeight="15380" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -511,21 +511,21 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>935.38270999999997</v>
+            <v>928</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>70391</v>
+            <v>77436</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>74369</v>
+            <v>75098</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -599,37 +599,6 @@
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Models"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="N3">
-            <v>116.348405</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>148.32900000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
@@ -656,6 +625,37 @@
         </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Models"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>116.348405</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>148.32900000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -964,18 +964,19 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="10" width="9.140625" style="2"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="9" width="9.1796875" style="2"/>
+    <col min="10" max="10" width="9.90625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1015,32 +1016,32 @@
         <v>3</v>
       </c>
       <c r="D3" s="5">
-        <v>544.70000000000005</v>
+        <v>572</v>
       </c>
       <c r="E3" s="3">
         <f>+D3*H3</f>
-        <v>509502.96213700005</v>
+        <v>530816</v>
       </c>
       <c r="F3" s="3">
         <f>+[1]Main!$M$5-[1]Main!$M$6</f>
-        <v>-3978</v>
+        <v>2338</v>
       </c>
       <c r="G3" s="3">
         <f>+E3-F3</f>
-        <v>513480.96213700005</v>
+        <v>528478</v>
       </c>
       <c r="H3" s="3">
         <f>+[1]Main!$M$3</f>
-        <v>935.38270999999997</v>
+        <v>928</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="J3" s="4">
-        <v>44793</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>45581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>27210.775386000001</v>
       </c>
       <c r="F7" s="3">
-        <f>+[5]Main!$M$5-[5]Main!$M$6</f>
+        <f>+[4]Main!$M$5-[4]Main!$M$6</f>
         <v>-647</v>
       </c>
       <c r="G7" s="3">
@@ -1155,7 +1156,7 @@
         <v>27857.775386000001</v>
       </c>
       <c r="H7" s="3">
-        <f>+[5]Main!$M$3</f>
+        <f>+[4]Main!$M$3</f>
         <v>120.401661</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -1165,7 +1166,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>59</v>
       </c>
@@ -1239,7 +1240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>61</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1269,7 +1270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>63</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1288,7 +1289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>118</v>
       </c>
@@ -1296,7 +1297,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1315,7 +1316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1337,7 +1338,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1348,7 +1349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>65</v>
       </c>
@@ -1386,7 +1387,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1397,7 +1398,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>69</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>71</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>79</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>208.26364495000001</v>
       </c>
       <c r="F34" s="3">
-        <f>+[4]Main!$N$5-[4]Main!$N$6</f>
+        <f>+[5]Main!$N$5-[5]Main!$N$6</f>
         <v>148.32900000000001</v>
       </c>
       <c r="G34" s="3">
@@ -1444,7 +1445,7 @@
         <v>59.934644950000006</v>
       </c>
       <c r="H34" s="3">
-        <f>+[4]Main!$N$3</f>
+        <f>+[5]Main!$N$3</f>
         <v>116.348405</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -1454,7 +1455,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>81</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -1484,7 +1485,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -1495,7 +1496,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1528,7 +1529,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -1539,7 +1540,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -1581,9 +1582,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>112</v>
       </c>
@@ -1602,17 +1603,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="E2" t="s">
         <v>73</v>
@@ -1621,12 +1622,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -1637,7 +1638,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>78</v>
       </c>
@@ -1648,17 +1649,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>114</v>
       </c>
@@ -1683,18 +1684,18 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>0</v>
@@ -1703,7 +1704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1725,7 +1726,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>111</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>109</v>
       </c>
@@ -1741,47 +1742,47 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>99</v>
       </c>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C043D1-A41A-485C-8724-7F29764EC46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99620BB2-25AD-4922-BA0A-A51667700E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="4360" windowWidth="26500" windowHeight="15380" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="-51015" yWindow="1500" windowWidth="20610" windowHeight="16575" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="126">
   <si>
     <t>Name</t>
   </si>
@@ -420,6 +421,9 @@
   </si>
   <si>
     <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
   </si>
 </sst>
 </file>
@@ -624,13 +628,47 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>864.61712999999997</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>5378</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>9549</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -967,16 +1005,16 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="9" width="9.1796875" style="2"/>
-    <col min="10" max="10" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1043,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1041,7 +1079,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1077,7 +1115,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1113,7 +1151,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1130,7 +1168,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1166,7 +1204,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1177,7 +1215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1188,7 +1226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1199,7 +1237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1210,7 +1248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1221,7 +1259,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1232,7 +1270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>59</v>
       </c>
@@ -1240,7 +1278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1251,15 +1289,40 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="5">
+        <v>8.98</v>
+      </c>
+      <c r="E16" s="3">
+        <f>+D16*H16</f>
+        <v>7764.2618274000006</v>
+      </c>
+      <c r="F16" s="3">
+        <f>+[5]Main!$K$5-[5]Main!$K$6</f>
+        <v>-4171</v>
+      </c>
+      <c r="G16" s="3">
+        <f>+E16-F16</f>
+        <v>11935.261827400001</v>
+      </c>
+      <c r="H16" s="3">
+        <f>+[5]Main!$K$3</f>
+        <v>864.61712999999997</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="4">
+        <v>45635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1270,7 +1333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>63</v>
       </c>
@@ -1278,7 +1341,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1289,7 +1352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>118</v>
       </c>
@@ -1297,7 +1360,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -1305,7 +1368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1316,7 +1379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1327,7 +1390,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1338,7 +1401,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1349,7 +1412,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1360,7 +1423,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1371,7 +1434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -1379,7 +1442,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>65</v>
       </c>
@@ -1387,7 +1450,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1398,7 +1461,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>69</v>
       </c>
@@ -1406,7 +1469,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>71</v>
       </c>
@@ -1414,7 +1477,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>79</v>
       </c>
@@ -1422,7 +1485,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
@@ -1437,7 +1500,7 @@
         <v>208.26364495000001</v>
       </c>
       <c r="F34" s="3">
-        <f>+[5]Main!$N$5-[5]Main!$N$6</f>
+        <f>+[6]Main!$N$5-[6]Main!$N$6</f>
         <v>148.32900000000001</v>
       </c>
       <c r="G34" s="3">
@@ -1445,7 +1508,7 @@
         <v>59.934644950000006</v>
       </c>
       <c r="H34" s="3">
-        <f>+[5]Main!$N$3</f>
+        <f>+[6]Main!$N$3</f>
         <v>116.348405</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -1455,7 +1518,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>81</v>
       </c>
@@ -1463,7 +1526,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1474,7 +1537,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -1485,7 +1548,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -1496,7 +1559,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1507,7 +1570,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -1518,7 +1581,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1529,7 +1592,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -1540,7 +1603,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -1551,7 +1614,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -1570,9 +1633,10 @@
     <hyperlink ref="B5" r:id="rId4" xr:uid="{E1A45D9E-6D14-4368-BE56-B4AE73B3148F}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{A4CD829C-FA5F-4E8F-A091-9BC35370EDB8}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{11CBD911-60EF-41AE-BE99-05DC8E7F8EAC}"/>
+    <hyperlink ref="B16" r:id="rId7" xr:uid="{3D362A7A-EDFB-4807-B2E5-B454DBA7E3D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1582,9 +1646,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>112</v>
       </c>
@@ -1603,17 +1667,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="E2" t="s">
         <v>73</v>
@@ -1622,12 +1686,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -1638,7 +1702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>78</v>
       </c>
@@ -1649,17 +1713,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>114</v>
       </c>
@@ -1684,18 +1748,18 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>0</v>
@@ -1704,7 +1768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1715,7 +1779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1726,7 +1790,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>111</v>
       </c>
@@ -1734,7 +1798,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>109</v>
       </c>
@@ -1742,47 +1806,47 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>99</v>
       </c>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99620BB2-25AD-4922-BA0A-A51667700E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0569492F-83FC-45DB-8FA1-44DF22D75165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51015" yWindow="1500" windowWidth="20610" windowHeight="16575" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15370" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1005,16 +1005,16 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="9" width="9.1796875" style="2"/>
+    <col min="10" max="10" width="10.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>59</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>61</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>45635</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>63</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>118</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>65</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>69</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>71</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>79</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>81</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>56</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -1646,9 +1646,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>112</v>
       </c>
@@ -1667,17 +1667,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="E2" t="s">
         <v>73</v>
@@ -1686,12 +1686,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>53</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>78</v>
       </c>
@@ -1713,17 +1713,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>114</v>
       </c>
@@ -1748,18 +1748,18 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>111</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>109</v>
       </c>
@@ -1806,47 +1806,47 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>99</v>
       </c>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0569492F-83FC-45DB-8FA1-44DF22D75165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EF0B9C-FA88-41C8-8434-A32B409DE66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15370" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="470" yWindow="2770" windowWidth="21900" windowHeight="14640" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -445,12 +445,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -466,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -481,6 +487,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1002,7 +1009,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1051,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="1" t="s">

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EF0B9C-FA88-41C8-8434-A32B409DE66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA7AF2A-B55D-44BD-88BC-E1117375EA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="470" yWindow="2770" windowWidth="21900" windowHeight="14640" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="13160" yWindow="3500" windowWidth="25480" windowHeight="13910" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="126">
   <si>
     <t>Name</t>
   </si>
@@ -545,37 +545,6 @@
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="O3">
-            <v>1312.8288070000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="O5">
-            <v>36117</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="O6">
-            <v>65216</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
@@ -598,6 +567,37 @@
         <row r="6">
           <cell r="J6">
             <v>38749</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="O3">
+            <v>1312.8288070000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="O5">
+            <v>36117</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="O6">
+            <v>65216</v>
           </cell>
         </row>
       </sheetData>
@@ -1009,7 +1009,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1087,43 +1087,18 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
+      <c r="A4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>100.06</v>
-      </c>
-      <c r="E4" s="3">
-        <f>+D4*H4</f>
-        <v>131361.65042842002</v>
-      </c>
-      <c r="F4" s="3">
-        <f>[2]Main!$O$5-[2]Main!$O$6</f>
-        <v>-29099</v>
-      </c>
-      <c r="G4" s="3">
-        <f>+E4-F4</f>
-        <v>160460.65042842002</v>
-      </c>
-      <c r="H4" s="3">
-        <f>[2]Main!$O$3</f>
-        <v>1312.8288070000001</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="4">
-        <v>44799</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1140,7 +1115,7 @@
         <v>114468.84489600001</v>
       </c>
       <c r="F5" s="3">
-        <f>+[3]Main!$J$5-[3]Main!$J$6</f>
+        <f>+[2]Main!$J$5-[2]Main!$J$6</f>
         <v>3290</v>
       </c>
       <c r="G5" s="3">
@@ -1148,7 +1123,7 @@
         <v>111178.84489600001</v>
       </c>
       <c r="H5" s="3">
-        <f>+[3]Main!$J$3</f>
+        <f>+[2]Main!$J$3</f>
         <v>238.97462400000001</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1159,67 +1134,92 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100.06</v>
+      </c>
+      <c r="E6" s="3">
+        <f>+D6*H6</f>
+        <v>131361.65042842002</v>
+      </c>
+      <c r="F6" s="3">
+        <f>[3]Main!$O$5-[3]Main!$O$6</f>
+        <v>-29099</v>
+      </c>
+      <c r="G6" s="3">
+        <f>+E6-F6</f>
+        <v>160460.65042842002</v>
+      </c>
+      <c r="H6" s="3">
+        <f>[3]Main!$O$3</f>
+        <v>1312.8288070000001</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="4">
+        <v>44799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>254.03</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J7" s="4">
         <v>45011</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D8" s="5">
         <v>226</v>
       </c>
-      <c r="E7" s="3">
-        <f>+D7*H7</f>
+      <c r="E8" s="3">
+        <f>+D8*H8</f>
         <v>27210.775386000001</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="3">
         <f>+[4]Main!$M$5-[4]Main!$M$6</f>
         <v>-647</v>
       </c>
-      <c r="G7" s="3">
-        <f>+E7-F7</f>
+      <c r="G8" s="3">
+        <f>+E8-F8</f>
         <v>27857.775386000001</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="3">
         <f>+[4]Main!$M$3</f>
         <v>120.401661</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J8" s="4">
         <v>45567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1227,32 +1227,32 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1260,10 +1260,10 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1271,18 +1271,21 @@
         <v>56</v>
       </c>
       <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1634,12 +1637,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{7B2636F0-BE29-4011-BA7C-DC63A8515BA5}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{7B2636F0-BE29-4011-BA7C-DC63A8515BA5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9E348503-3AE7-4682-84B0-5168194A64CE}"/>
     <hyperlink ref="B34" r:id="rId3" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{E1A45D9E-6D14-4368-BE56-B4AE73B3148F}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{A4CD829C-FA5F-4E8F-A091-9BC35370EDB8}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{11CBD911-60EF-41AE-BE99-05DC8E7F8EAC}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{A4CD829C-FA5F-4E8F-A091-9BC35370EDB8}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{11CBD911-60EF-41AE-BE99-05DC8E7F8EAC}"/>
     <hyperlink ref="B16" r:id="rId7" xr:uid="{3D362A7A-EDFB-4807-B2E5-B454DBA7E3D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA7AF2A-B55D-44BD-88BC-E1117375EA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FC0751-2A9D-4595-84D2-C9F8ADEBA5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="3500" windowWidth="25480" windowHeight="13910" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="-19575" yWindow="930" windowWidth="18510" windowHeight="11235" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -111,12 +111,6 @@
     <t>IQV</t>
   </si>
   <si>
-    <t>Amerisource</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
     <t>LabCorp</t>
   </si>
   <si>
@@ -424,6 +418,12 @@
   </si>
   <si>
     <t>Q324</t>
+  </si>
+  <si>
+    <t>Cencora</t>
+  </si>
+  <si>
+    <t>COR</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1005,23 +1005,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
   <dimension ref="A2:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="9" width="9.1796875" style="2"/>
-    <col min="10" max="10" width="10.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1035,24 +1035,24 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -1080,32 +1080,32 @@
         <v>928</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J3" s="4">
         <v>45581</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" s="5">
         <v>479</v>
@@ -1127,15 +1127,15 @@
         <v>238.97462400000001</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J5" s="4">
         <v>44947</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -1163,15 +1163,15 @@
         <v>1312.8288070000001</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J6" s="4">
         <v>44799</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -1186,9 +1186,9 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -1216,15 +1216,15 @@
         <v>120.401661</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J8" s="4">
         <v>45567</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1233,9 +1233,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -1244,9 +1244,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1255,9 +1255,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -1266,20 +1266,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1288,23 +1288,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="5">
         <v>8.98</v>
@@ -1326,181 +1326,181 @@
         <v>864.61712999999997</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J16" s="4">
         <v>45635</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
         <v>65</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>69</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2">
         <v>1.79</v>
@@ -1522,117 +1522,117 @@
         <v>116.348405</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J34" s="4">
         <v>44791</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>84</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C37" t="s">
         <v>86</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
         <v>87</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
         <v>89</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
         <v>91</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
         <v>93</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
         <v>95</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
         <v>120</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1656,11 +1656,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1677,71 +1677,71 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
         <v>114</v>
-      </c>
-      <c r="E8" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1758,18 +1758,18 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>0</v>
@@ -1778,9 +1778,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -1789,76 +1789,76 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FC0751-2A9D-4595-84D2-C9F8ADEBA5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F3E130-B543-43B2-A2A3-28A327BDFC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19575" yWindow="930" windowWidth="18510" windowHeight="11235" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="-44610" yWindow="1860" windowWidth="21720" windowHeight="17280" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1006,10 +1006,10 @@
   <dimension ref="A2:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1267,7 +1267,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B13" t="s">
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B14" t="s">

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F3E130-B543-43B2-A2A3-28A327BDFC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C146350B-ED20-4D4D-A75E-645685607CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44610" yWindow="1860" windowWidth="21720" windowHeight="17280" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="-27960" yWindow="1065" windowWidth="27045" windowHeight="15480" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1005,11 +1005,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
   <dimension ref="A2:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13:A14"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1187,7 +1187,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="1" t="s">

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C146350B-ED20-4D4D-A75E-645685607CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F997B161-6087-4BE3-B163-4E45AB768AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27960" yWindow="1065" windowWidth="27045" windowHeight="15480" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="795" yWindow="1140" windowWidth="27570" windowHeight="14220" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -246,9 +246,6 @@
     <t>Dr. Sulaiman</t>
   </si>
   <si>
-    <t>SULAIMAN AB</t>
-  </si>
-  <si>
     <t>Pharmaron</t>
   </si>
   <si>
@@ -424,6 +421,9 @@
   </si>
   <si>
     <t>COR</t>
+  </si>
+  <si>
+    <t>4013 SR</t>
   </si>
 </sst>
 </file>
@@ -1005,11 +1005,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
   <dimension ref="A2:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1080,7 +1080,7 @@
         <v>928</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J3" s="4">
         <v>45581</v>
@@ -1105,7 +1105,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="5">
         <v>479</v>
@@ -1127,7 +1127,7 @@
         <v>238.97462400000001</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J5" s="4">
         <v>44947</v>
@@ -1216,21 +1216,21 @@
         <v>120.401661</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J8" s="4">
         <v>45567</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1238,10 +1238,10 @@
         <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1249,32 +1249,32 @@
         <v>54</v>
       </c>
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1282,217 +1282,217 @@
         <v>54</v>
       </c>
       <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D18" s="5">
         <v>8.98</v>
       </c>
-      <c r="E16" s="3">
-        <f>+D16*H16</f>
+      <c r="E18" s="3">
+        <f>+D18*H18</f>
         <v>7764.2618274000006</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F18" s="3">
         <f>+[5]Main!$K$5-[5]Main!$K$6</f>
         <v>-4171</v>
       </c>
-      <c r="G16" s="3">
-        <f>+E16-F16</f>
+      <c r="G18" s="3">
+        <f>+E18-F18</f>
         <v>11935.261827400001</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H18" s="3">
         <f>+[5]Main!$K$3</f>
         <v>864.61712999999997</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" s="4">
+        <v>45635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="4">
-        <v>45635</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C19" t="s">
         <v>124</v>
       </c>
-      <c r="C17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" t="s">
         <v>116</v>
       </c>
-      <c r="C20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>63</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>67</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
         <v>77</v>
-      </c>
-      <c r="C33" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
@@ -1530,10 +1530,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35" t="s">
         <v>79</v>
-      </c>
-      <c r="K35" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -1541,21 +1541,21 @@
         <v>54</v>
       </c>
       <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
         <v>82</v>
-      </c>
-      <c r="C36" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
         <v>84</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>85</v>
-      </c>
-      <c r="C37" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -1563,10 +1563,10 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
         <v>87</v>
-      </c>
-      <c r="C38" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1574,10 +1574,10 @@
         <v>54</v>
       </c>
       <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
         <v>89</v>
-      </c>
-      <c r="C39" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1585,10 +1585,10 @@
         <v>54</v>
       </c>
       <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
         <v>91</v>
-      </c>
-      <c r="C40" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -1596,10 +1596,10 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
         <v>93</v>
-      </c>
-      <c r="C41" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -1607,10 +1607,10 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
         <v>95</v>
-      </c>
-      <c r="C42" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -1618,10 +1618,10 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
         <v>118</v>
-      </c>
-      <c r="C43" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -1629,10 +1629,10 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
         <v>120</v>
-      </c>
-      <c r="C44" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1643,7 +1643,7 @@
     <hyperlink ref="B5" r:id="rId4" xr:uid="{E1A45D9E-6D14-4368-BE56-B4AE73B3148F}"/>
     <hyperlink ref="B7" r:id="rId5" xr:uid="{A4CD829C-FA5F-4E8F-A091-9BC35370EDB8}"/>
     <hyperlink ref="B8" r:id="rId6" xr:uid="{11CBD911-60EF-41AE-BE99-05DC8E7F8EAC}"/>
-    <hyperlink ref="B16" r:id="rId7" xr:uid="{3D362A7A-EDFB-4807-B2E5-B454DBA7E3D8}"/>
+    <hyperlink ref="B18" r:id="rId7" xr:uid="{3D362A7A-EDFB-4807-B2E5-B454DBA7E3D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
@@ -1660,7 +1660,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1690,10 +1690,10 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1714,34 +1714,34 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" t="s">
         <v>112</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>113</v>
-      </c>
-      <c r="F8" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1802,63 +1802,63 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F997B161-6087-4BE3-B163-4E45AB768AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FF0BA1-F293-454D-AEB2-848EA2B31BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1140" windowWidth="27570" windowHeight="14220" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="-27990" yWindow="2685" windowWidth="26085" windowHeight="17160" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="128">
   <si>
     <t>Name</t>
   </si>
@@ -424,6 +425,12 @@
   </si>
   <si>
     <t>4013 SR</t>
+  </si>
+  <si>
+    <t>Hims</t>
+  </si>
+  <si>
+    <t>HIMS</t>
   </si>
 </sst>
 </file>
@@ -701,6 +708,40 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="I3">
+            <v>222.165572</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="I5">
+            <v>254.071</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="I6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1003,13 +1044,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
-  <dimension ref="A2:K44"/>
+  <dimension ref="A2:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1393,22 +1434,44 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="5">
+        <v>26.3</v>
+      </c>
+      <c r="E23" s="3">
+        <f>+D23*H23</f>
+        <v>5842.9545435999999</v>
+      </c>
+      <c r="F23" s="3">
+        <f>[7]Main!$I$5-[7]Main!$I$6</f>
+        <v>254.071</v>
+      </c>
+      <c r="G23" s="3">
+        <f>+E23-F23</f>
+        <v>5588.8835435999999</v>
+      </c>
+      <c r="H23" s="3">
+        <f>[7]Main!$I$3</f>
+        <v>222.165572</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J23" s="4">
+        <v>45763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1416,10 +1479,10 @@
         <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1427,10 +1490,10 @@
         <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1438,10 +1501,10 @@
         <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1449,124 +1512,124 @@
         <v>54</v>
       </c>
       <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>76</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D35" s="2">
         <v>1.79</v>
       </c>
-      <c r="E34" s="3">
-        <f>+D34*H34</f>
+      <c r="E35" s="3">
+        <f>+D35*H35</f>
         <v>208.26364495000001</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F35" s="3">
         <f>+[6]Main!$N$5-[6]Main!$N$6</f>
         <v>148.32900000000001</v>
       </c>
-      <c r="G34" s="3">
-        <f>+E34-F34</f>
+      <c r="G35" s="3">
+        <f>+E35-F35</f>
         <v>59.934644950000006</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H35" s="3">
         <f>+[6]Main!$N$3</f>
         <v>116.348405</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J35" s="4">
         <v>44791</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>78</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K36" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -1574,10 +1637,10 @@
         <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -1585,10 +1648,10 @@
         <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -1596,10 +1659,10 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -1607,10 +1670,10 @@
         <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -1618,10 +1681,10 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -1629,9 +1692,20 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
         <v>119</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1639,14 +1713,15 @@
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{7B2636F0-BE29-4011-BA7C-DC63A8515BA5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9E348503-3AE7-4682-84B0-5168194A64CE}"/>
-    <hyperlink ref="B34" r:id="rId3" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
+    <hyperlink ref="B35" r:id="rId3" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{E1A45D9E-6D14-4368-BE56-B4AE73B3148F}"/>
     <hyperlink ref="B7" r:id="rId5" xr:uid="{A4CD829C-FA5F-4E8F-A091-9BC35370EDB8}"/>
     <hyperlink ref="B8" r:id="rId6" xr:uid="{11CBD911-60EF-41AE-BE99-05DC8E7F8EAC}"/>
     <hyperlink ref="B18" r:id="rId7" xr:uid="{3D362A7A-EDFB-4807-B2E5-B454DBA7E3D8}"/>
+    <hyperlink ref="B23" r:id="rId8" xr:uid="{18D3DE2F-1AA9-4B1F-AF7C-8816D19DD121}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FF0BA1-F293-454D-AEB2-848EA2B31BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DE0F71-25E6-4802-90A2-ADF8C211A2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="2685" windowWidth="26085" windowHeight="17160" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="47720" yWindow="4500" windowWidth="28800" windowHeight="15370" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="130">
   <si>
     <t>Name</t>
   </si>
@@ -431,6 +431,12 @@
   </si>
   <si>
     <t>HIMS</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>VTR</t>
   </si>
 </sst>
 </file>
@@ -685,37 +691,6 @@
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Models"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="N3">
-            <v>116.348405</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="N5">
-            <v>148.32900000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="N6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
@@ -742,6 +717,37 @@
         </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Models"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>116.348405</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>148.32900000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1044,25 +1050,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
-  <dimension ref="A2:K45"/>
+  <dimension ref="A2:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="10.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="9" width="9.1796875" style="2"/>
+    <col min="10" max="10" width="10.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1097,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>54</v>
       </c>
@@ -1127,7 +1133,7 @@
         <v>45581</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>54</v>
       </c>
@@ -1138,7 +1144,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>54</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>54</v>
       </c>
@@ -1210,7 +1216,7 @@
         <v>44799</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>54</v>
       </c>
@@ -1227,7 +1233,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>54</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>45567</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>54</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>54</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>54</v>
       </c>
@@ -1296,7 +1302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>54</v>
       </c>
@@ -1307,7 +1313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>54</v>
       </c>
@@ -1329,7 +1335,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>54</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>54</v>
       </c>
@@ -1351,361 +1357,372 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="5">
         <v>8.98</v>
       </c>
-      <c r="E18" s="3">
-        <f>+D18*H18</f>
+      <c r="E19" s="3">
+        <f>+D19*H19</f>
         <v>7764.2618274000006</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="3">
         <f>+[5]Main!$K$5-[5]Main!$K$6</f>
         <v>-4171</v>
       </c>
-      <c r="G18" s="3">
-        <f>+E18-F18</f>
+      <c r="G19" s="3">
+        <f>+E19-F19</f>
         <v>11935.261827400001</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H19" s="3">
         <f>+[5]Main!$K$3</f>
         <v>864.61712999999997</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J19" s="4">
         <v>45635</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
         <v>123</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>61</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>115</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D24" s="5">
         <v>26.3</v>
       </c>
-      <c r="E23" s="3">
-        <f>+D23*H23</f>
+      <c r="E24" s="3">
+        <f>+D24*H24</f>
         <v>5842.9545435999999</v>
       </c>
-      <c r="F23" s="3">
-        <f>[7]Main!$I$5-[7]Main!$I$6</f>
+      <c r="F24" s="3">
+        <f>[6]Main!$I$5-[6]Main!$I$6</f>
         <v>254.071</v>
       </c>
-      <c r="G23" s="3">
-        <f>+E23-F23</f>
+      <c r="G24" s="3">
+        <f>+E24-F24</f>
         <v>5588.8835435999999</v>
       </c>
-      <c r="H23" s="3">
-        <f>[7]Main!$I$3</f>
+      <c r="H24" s="3">
+        <f>[6]Main!$I$3</f>
         <v>222.165572</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J24" s="4">
         <v>45763</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>37</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>68</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>76</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D36" s="2">
         <v>1.79</v>
       </c>
-      <c r="E35" s="3">
-        <f>+D35*H35</f>
+      <c r="E36" s="3">
+        <f>+D36*H36</f>
         <v>208.26364495000001</v>
       </c>
-      <c r="F35" s="3">
-        <f>+[6]Main!$N$5-[6]Main!$N$6</f>
+      <c r="F36" s="3">
+        <f>+[7]Main!$N$5-[7]Main!$N$6</f>
         <v>148.32900000000001</v>
       </c>
-      <c r="G35" s="3">
-        <f>+E35-F35</f>
+      <c r="G36" s="3">
+        <f>+E36-F36</f>
         <v>59.934644950000006</v>
       </c>
-      <c r="H35" s="3">
-        <f>+[6]Main!$N$3</f>
+      <c r="H36" s="3">
+        <f>+[7]Main!$N$3</f>
         <v>116.348405</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J36" s="4">
         <v>44791</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>78</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
         <v>81</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>83</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>84</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
         <v>86</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
         <v>88</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
         <v>90</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
         <v>92</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
         <v>94</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
         <v>117</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
         <v>119</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1713,12 +1730,12 @@
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{7B2636F0-BE29-4011-BA7C-DC63A8515BA5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9E348503-3AE7-4682-84B0-5168194A64CE}"/>
-    <hyperlink ref="B35" r:id="rId3" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
+    <hyperlink ref="B36" r:id="rId3" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{E1A45D9E-6D14-4368-BE56-B4AE73B3148F}"/>
     <hyperlink ref="B7" r:id="rId5" xr:uid="{A4CD829C-FA5F-4E8F-A091-9BC35370EDB8}"/>
     <hyperlink ref="B8" r:id="rId6" xr:uid="{11CBD911-60EF-41AE-BE99-05DC8E7F8EAC}"/>
-    <hyperlink ref="B18" r:id="rId7" xr:uid="{3D362A7A-EDFB-4807-B2E5-B454DBA7E3D8}"/>
-    <hyperlink ref="B23" r:id="rId8" xr:uid="{18D3DE2F-1AA9-4B1F-AF7C-8816D19DD121}"/>
+    <hyperlink ref="B19" r:id="rId7" xr:uid="{3D362A7A-EDFB-4807-B2E5-B454DBA7E3D8}"/>
+    <hyperlink ref="B24" r:id="rId8" xr:uid="{18D3DE2F-1AA9-4B1F-AF7C-8816D19DD121}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
@@ -1731,9 +1748,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>109</v>
       </c>
@@ -1752,17 +1769,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="E2" t="s">
         <v>70</v>
@@ -1771,12 +1788,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>51</v>
       </c>
@@ -1787,7 +1804,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>75</v>
       </c>
@@ -1798,17 +1815,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>111</v>
       </c>
@@ -1833,18 +1850,18 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>0</v>
@@ -1853,7 +1870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1864,7 +1881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1875,7 +1892,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>108</v>
       </c>
@@ -1883,7 +1900,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>106</v>
       </c>
@@ -1891,47 +1908,47 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>96</v>
       </c>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DE0F71-25E6-4802-90A2-ADF8C211A2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C3AFFA-A5B1-4BC4-B31F-82854123B378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47720" yWindow="4500" windowWidth="28800" windowHeight="15370" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="60050" yWindow="6340" windowWidth="16100" windowHeight="12910" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="131">
   <si>
     <t>Name</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>VTR</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -535,21 +538,21 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>928</v>
+            <v>929</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>77436</v>
+            <v>81467</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>75098</v>
+            <v>76904</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -592,6 +595,9 @@
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Model"/>
@@ -614,7 +620,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1052,11 +1058,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7AEE9-EF00-4FDA-B370-F11DB8E9EFA2}">
   <dimension ref="A2:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1108,112 +1114,118 @@
         <v>3</v>
       </c>
       <c r="D3" s="5">
-        <v>572</v>
+        <v>384.54</v>
       </c>
       <c r="E3" s="3">
         <f>+D3*H3</f>
-        <v>530816</v>
+        <v>357237.66000000003</v>
       </c>
       <c r="F3" s="3">
         <f>+[1]Main!$M$5-[1]Main!$M$6</f>
-        <v>2338</v>
+        <v>4563</v>
       </c>
       <c r="G3" s="3">
         <f>+E3-F3</f>
-        <v>528478</v>
+        <v>352674.66000000003</v>
       </c>
       <c r="H3" s="3">
         <f>+[1]Main!$M$3</f>
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J3" s="4">
-        <v>45581</v>
+        <v>45786</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B4" t="s">
-        <v>57</v>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>67.25</v>
+      </c>
+      <c r="E4" s="3">
+        <f>+D4*H4</f>
+        <v>88287.737270750004</v>
+      </c>
+      <c r="F4" s="3">
+        <f>[3]Main!$O$5-[3]Main!$O$6</f>
+        <v>-29099</v>
+      </c>
+      <c r="G4" s="3">
+        <f>+E4-F4</f>
+        <v>117386.73727075</v>
+      </c>
+      <c r="H4" s="3">
+        <f>[3]Main!$O$3</f>
+        <v>1312.8288070000001</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4">
+        <v>44799</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2">
+        <v>149.41999999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>94900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D6" s="5">
         <v>479</v>
       </c>
-      <c r="E5" s="3">
-        <f>+D5*H5</f>
+      <c r="E6" s="3">
+        <f>+D6*H6</f>
         <v>114468.84489600001</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="3">
         <f>+[2]Main!$J$5-[2]Main!$J$6</f>
         <v>3290</v>
       </c>
-      <c r="G5" s="3">
-        <f>+E5-F5</f>
+      <c r="G6" s="3">
+        <f>+E6-F6</f>
         <v>111178.84489600001</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="3">
         <f>+[2]Main!$J$3</f>
         <v>238.97462400000001</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J6" s="4">
         <v>44947</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2">
-        <v>100.06</v>
-      </c>
-      <c r="E6" s="3">
-        <f>+D6*H6</f>
-        <v>131361.65042842002</v>
-      </c>
-      <c r="F6" s="3">
-        <f>[3]Main!$O$5-[3]Main!$O$6</f>
-        <v>-29099</v>
-      </c>
-      <c r="G6" s="3">
-        <f>+E6-F6</f>
-        <v>160460.65042842002</v>
-      </c>
-      <c r="H6" s="3">
-        <f>[3]Main!$O$3</f>
-        <v>1312.8288070000001</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="4">
-        <v>44799</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1728,10 +1740,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{7B2636F0-BE29-4011-BA7C-DC63A8515BA5}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{7B2636F0-BE29-4011-BA7C-DC63A8515BA5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{9E348503-3AE7-4682-84B0-5168194A64CE}"/>
     <hyperlink ref="B36" r:id="rId3" xr:uid="{D0C0A315-E060-4161-8384-69E332154276}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{E1A45D9E-6D14-4368-BE56-B4AE73B3148F}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{E1A45D9E-6D14-4368-BE56-B4AE73B3148F}"/>
     <hyperlink ref="B7" r:id="rId5" xr:uid="{A4CD829C-FA5F-4E8F-A091-9BC35370EDB8}"/>
     <hyperlink ref="B8" r:id="rId6" xr:uid="{11CBD911-60EF-41AE-BE99-05DC8E7F8EAC}"/>
     <hyperlink ref="B19" r:id="rId7" xr:uid="{3D362A7A-EDFB-4807-B2E5-B454DBA7E3D8}"/>

--- a/HC Services.xlsx
+++ b/HC Services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C3AFFA-A5B1-4BC4-B31F-82854123B378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024085AC-21D5-4F62-870F-30BCB06D5F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60050" yWindow="6340" windowWidth="16100" windowHeight="12910" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
+    <workbookView xWindow="38860" yWindow="5580" windowWidth="18350" windowHeight="15420" xr2:uid="{C4E93C08-663D-492A-AEC7-938C289047C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="131">
   <si>
     <t>Name</t>
   </si>
@@ -571,22 +571,22 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="J3">
-            <v>238.97462400000001</v>
+          <cell r="O3">
+            <v>1312.8288070000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="J5">
-            <v>42039</v>
+          <cell r="O5">
+            <v>36117</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="J6">
-            <v>38749</v>
+          <cell r="O6">
+            <v>65216</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -605,22 +605,22 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="O3">
-            <v>1312.8288070000001</v>
+          <cell r="J3">
+            <v>238.97462400000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="O5">
-            <v>36117</v>
+          <cell r="J5">
+            <v>42039</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="O6">
-            <v>65216</v>
+          <cell r="J6">
+            <v>38749</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1062,7 +1062,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1157,7 @@
         <v>88287.737270750004</v>
       </c>
       <c r="F4" s="3">
-        <f>[3]Main!$O$5-[3]Main!$O$6</f>
+        <f>[2]Main!$O$5-[2]Main!$O$6</f>
         <v>-29099</v>
       </c>
       <c r="G4" s="3">
@@ -1165,7 +1165,7 @@
         <v>117386.73727075</v>
       </c>
       <c r="H4" s="3">
-        <f>[3]Main!$O$3</f>
+        <f>[2]Main!$O$3</f>
         <v>1312.8288070000001</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1210,7 +1210,7 @@
         <v>114468.84489600001</v>
       </c>
       <c r="F6" s="3">
-        <f>+[2]Main!$J$5-[2]Main!$J$6</f>
+        <f>+[3]Main!$J$5-[3]Main!$J$6</f>
         <v>3290</v>
       </c>
       <c r="G6" s="3">
@@ -1218,7 +1218,7 @@
         <v>111178.84489600001</v>
       </c>
       <c r="H6" s="3">
-        <f>+[2]Main!$J$3</f>
+        <f>+[3]Main!$J$3</f>
         <v>238.97462400000001</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1537,7 +1537,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
@@ -1858,9 +1858,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E946CBC6-AB19-4864-8781-64E78709BBCD}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1868,12 +1873,12 @@
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>0</v>
@@ -1881,9 +1886,21 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B3" t="s">
@@ -1893,7 +1910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1904,7 +1921,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>108</v>
       </c>
@@ -1912,7 +1929,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>106</v>
       </c>
@@ -1920,47 +1937,47 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>96</v>
       </c>
